--- a/src/NFLYearlyTiers/2025/te_ratings_2025.xlsx
+++ b/src/NFLYearlyTiers/2025/te_ratings_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\CascadeProjects\fantasy-football-rankings\src\NFLYearlyTiers\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B67B5B-C3E5-4C0B-8D0E-2377A97F0568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31F4AB6-B6BE-40D0-BFE5-3DE35D40444A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EB756101-1338-4D6A-9125-5C4B67CD3DCE}"/>
   </bookViews>
@@ -589,8 +589,8 @@
         <v>100</v>
       </c>
       <c r="I2" s="3">
-        <f>D2*10+E2*5+F2-G2*3-300</f>
-        <v>650</v>
+        <f>D2*10+E2*5+F2-G2*3</f>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -621,8 +621,8 @@
         <v>100</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I16" si="1">D3*10+E3*5+F3-G3*3-300</f>
-        <v>500</v>
+        <f t="shared" ref="I3:I16" si="1">D3*10+E3*5+F3-G3*3</f>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="1"/>
-        <v>-215</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="1"/>
-        <v>-280</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
